--- a/Group Lab 5/Group Lab 5 .xlsx
+++ b/Group Lab 5/Group Lab 5 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\ST CLAIR\Semester4\DAB 400 Supply Chain\Lab\Group Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04 - Semester4\01 - capstone\Github\Capstone-Project\Group Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC50D0D-10F7-4E49-8D64-78547995D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96DE61-7098-43D4-9C95-C20C8500EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
   <si>
     <t>STEEL</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>AUTOMOTIVE RETAIL (2021)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Bridgestone</t>
+  </si>
+  <si>
+    <t>Michelin</t>
+  </si>
+  <si>
+    <t>Goodyear</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -322,17 +334,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,17 +358,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -685,1338 +690,1379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AEEC-24BE-4480-B690-F150F4589865}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="G4" s="1"/>
+      <c r="J4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B5" s="11"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="2"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="2"/>
+      <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="2"/>
+      <c r="J6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="2"/>
+      <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="2"/>
+      <c r="J7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="2"/>
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="2"/>
+      <c r="J8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="3"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="2"/>
+      <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="J10" s="13" t="s">
+      <c r="G10" s="2"/>
+      <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="e">
+      <c r="C11" s="2" t="e">
         <f>C13/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="e">
+      <c r="G11" s="2" t="e">
         <f>G13/G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="3" t="e">
+      <c r="K11" s="2" t="e">
         <f>K13/K12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="2"/>
+      <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="J12" s="13" t="s">
+      <c r="G12" s="2"/>
+      <c r="J12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="2"/>
+      <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="J13" s="13" t="s">
+      <c r="G13" s="2"/>
+      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="2"/>
+      <c r="F15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="2"/>
+      <c r="J15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="e">
+      <c r="C16" s="2" t="e">
         <f>C17/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="3" t="e">
+      <c r="G16" s="2" t="e">
         <f>G17/G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="3" t="e">
+      <c r="K16" s="2" t="e">
         <f>K17/K18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="2"/>
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="J17" s="13" t="s">
+      <c r="G17" s="2"/>
+      <c r="J17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="F18" s="14" t="s">
+      <c r="C18" s="3"/>
+      <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="J18" s="14" t="s">
+      <c r="G18" s="3"/>
+      <c r="J18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="20" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="F23" s="12" t="s">
+      <c r="C23" s="1"/>
+      <c r="F23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="J23" s="12" t="s">
+      <c r="G23" s="1"/>
+      <c r="J23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="3"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="3"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="11"/>
+      <c r="C24" s="2"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="F25" s="13" t="s">
+      <c r="C25" s="2"/>
+      <c r="F25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="J25" s="13" t="s">
+      <c r="G25" s="2"/>
+      <c r="J25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="F26" s="13" t="s">
+      <c r="C26" s="2"/>
+      <c r="F26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="J26" s="13" t="s">
+      <c r="G26" s="2"/>
+      <c r="J26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="F27" s="13" t="s">
+      <c r="C27" s="2"/>
+      <c r="F27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="J27" s="13" t="s">
+      <c r="G27" s="2"/>
+      <c r="J27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="3"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="3"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="11"/>
+      <c r="C28" s="2"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="F29" s="13" t="s">
+      <c r="C29" s="2"/>
+      <c r="F29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="J29" s="13" t="s">
+      <c r="G29" s="2"/>
+      <c r="J29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="e">
+      <c r="C30" s="2" t="e">
         <f>C32/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="3" t="e">
+      <c r="G30" s="2" t="e">
         <f>G32/G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="3" t="e">
+      <c r="K30" s="2" t="e">
         <f>K32/K31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="F31" s="13" t="s">
+      <c r="C31" s="2"/>
+      <c r="F31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="J31" s="13" t="s">
+      <c r="G31" s="2"/>
+      <c r="J31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="F32" s="13" t="s">
+      <c r="C32" s="2"/>
+      <c r="F32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="J32" s="13" t="s">
+      <c r="G32" s="2"/>
+      <c r="J32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="3"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="3"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B33" s="11"/>
+      <c r="C33" s="2"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="F34" s="13" t="s">
+      <c r="C34" s="2"/>
+      <c r="F34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="J34" s="13" t="s">
+      <c r="G34" s="2"/>
+      <c r="J34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="3" t="e">
+      <c r="C35" s="2" t="e">
         <f>C36/C37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="3" t="e">
+      <c r="G35" s="2" t="e">
         <f>G36/G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="3" t="e">
+      <c r="K35" s="2" t="e">
         <f>K36/K37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="F36" s="13" t="s">
+      <c r="C36" s="2"/>
+      <c r="F36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="J36" s="13" t="s">
+      <c r="G36" s="2"/>
+      <c r="J36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="F37" s="14" t="s">
+      <c r="C37" s="3"/>
+      <c r="F37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="J37" s="14" t="s">
+      <c r="G37" s="3"/>
+      <c r="J37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="F42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="J42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B43" s="11"/>
+      <c r="C43" s="2"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>23.79</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.839</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B47" s="11"/>
+      <c r="C47" s="2"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="2"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="F48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="J48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15">
+        <f>C51/C50*1000000000</f>
+        <v>205656.42214932901</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2">
+        <f>G51/G50*1000000000</f>
+        <v>193414.63414634147</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2">
+        <f>K51/K50*1000000000</f>
+        <v>236081.08108108107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>143589</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="2">
+        <v>123000</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="2">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2">
+        <v>23.79</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="2">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B52" s="11"/>
+      <c r="C52" s="2"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="2"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="F53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="J53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <f>C55/C56</f>
+        <v>1.165375</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
+        <f>G55/G56</f>
+        <v>1.3806678383128297</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="2">
+        <f>K55/K56</f>
+        <v>2.6092377444035137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>93.23</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2">
+        <v>78.56</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="2">
+        <v>92.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3">
+        <v>80</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3">
+        <v>56.9</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="3">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B61" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="F42" s="12" t="s">
+      <c r="C61" s="1"/>
+      <c r="F61" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="J42" s="12" t="s">
+      <c r="G61" s="1"/>
+      <c r="J61" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="3"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="3"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B62" s="11"/>
+      <c r="C62" s="2"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="2"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="F44" s="13" t="s">
+      <c r="C63" s="2"/>
+      <c r="F63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="J44" s="13" t="s">
+      <c r="G63" s="2"/>
+      <c r="J63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B64" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="F45" s="13" t="s">
+      <c r="C64" s="2"/>
+      <c r="F64" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="J45" s="13" t="s">
+      <c r="G64" s="2"/>
+      <c r="J64" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="F46" s="13" t="s">
+      <c r="C65" s="2"/>
+      <c r="F65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="J46" s="13" t="s">
+      <c r="G65" s="2"/>
+      <c r="J65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="3"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="3"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B66" s="11"/>
+      <c r="C66" s="2"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="2"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="F48" s="13" t="s">
+      <c r="C67" s="2"/>
+      <c r="F67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="J48" s="13" t="s">
+      <c r="G67" s="2"/>
+      <c r="J67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="13" t="s">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="3" t="e">
-        <f>C51/C50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="3" t="e">
-        <f>G51/G50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="3" t="e">
-        <f>K51/K50</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="F50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="J50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="F51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="J51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="3"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="3"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="F53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="J53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3" t="e">
-        <f>C55/C56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3" t="e">
-        <f>G55/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="3" t="e">
-        <f>K55/K56</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="J55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="F56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="J56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="F61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="J61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="3"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="3"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="F63" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="J63" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="F64" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="J64" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="F65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="J65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
-      <c r="C66" s="3"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="3"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="F67" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="J67" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="3" t="e">
+      <c r="C68" s="2" t="e">
         <f>C70/C69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="3" t="e">
+      <c r="G68" s="2" t="e">
         <f>G70/G69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="3" t="e">
+      <c r="K68" s="2" t="e">
         <f>K70/K69</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="13" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="F69" s="13" t="s">
+      <c r="C69" s="2"/>
+      <c r="F69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="J69" s="13" t="s">
+      <c r="G69" s="2"/>
+      <c r="J69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="13" t="s">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="F70" s="13" t="s">
+      <c r="C70" s="2"/>
+      <c r="F70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="J70" s="13" t="s">
+      <c r="G70" s="2"/>
+      <c r="J70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="13"/>
-      <c r="C71" s="3"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="3"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="13" t="s">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B71" s="11"/>
+      <c r="C71" s="2"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="2"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="F72" s="13" t="s">
+      <c r="C72" s="2"/>
+      <c r="F72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="J72" s="13" t="s">
+      <c r="G72" s="2"/>
+      <c r="J72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="13" t="s">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="3" t="e">
+      <c r="C73" s="2" t="e">
         <f>C74/C75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="3" t="e">
+      <c r="G73" s="2" t="e">
         <f>G74/G75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K73" s="3" t="e">
+      <c r="K73" s="2" t="e">
         <f>K74/K75</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="13" t="s">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="F74" s="13" t="s">
+      <c r="C74" s="2"/>
+      <c r="F74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="J74" s="13" t="s">
+      <c r="G74" s="2"/>
+      <c r="J74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B75" s="14" t="s">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="F75" s="14" t="s">
+      <c r="C75" s="3"/>
+      <c r="F75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="J75" s="14" t="s">
+      <c r="G75" s="3"/>
+      <c r="J75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-    </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B80" s="12" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="F80" s="12" t="s">
+      <c r="C80" s="1"/>
+      <c r="F80" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="J80" s="12" t="s">
+      <c r="G80" s="1"/>
+      <c r="J80" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="M80" s="19"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
-      <c r="C81" s="3"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="3"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="3"/>
-      <c r="M81" s="19"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="13" t="s">
+      <c r="K80" s="1"/>
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B81" s="11"/>
+      <c r="C81" s="2"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="2"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="2"/>
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="13">
         <v>2584000000</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="13">
         <v>25554700000</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K82" s="13">
         <v>13481900000</v>
       </c>
-      <c r="M82" s="19"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="13" t="s">
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="13">
         <v>1373000000</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="13">
         <v>1187800000</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K83" s="13">
         <v>552100000</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="13" t="s">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="13">
         <v>800400000</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="13">
         <v>3129000000</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K84" s="13">
         <v>1073100000</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
-      <c r="C85" s="3"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="3"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="13" t="s">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B85" s="11"/>
+      <c r="C85" s="2"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="2"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B86" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="F86" s="13" t="s">
+      <c r="C86" s="2"/>
+      <c r="F86" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="J86" s="13" t="s">
+      <c r="G86" s="2"/>
+      <c r="J86" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="13" t="s">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B87" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="15">
         <f>C89/C88</f>
         <v>116396.39639639639</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="15">
         <f>G89/G88</f>
         <v>1022188</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <f>K89/K88</f>
         <v>983290.78841805854</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B88" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="14">
         <v>22200</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="14">
         <v>25000</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="14">
         <v>13711</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B89" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="13">
         <v>2584000000</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="16">
         <f>G82</f>
         <v>25554700000</v>
       </c>
-      <c r="J89" s="13" t="s">
+      <c r="J89" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K89" s="16">
         <f>K82</f>
         <v>13481900000</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
-      <c r="C90" s="3"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="3"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="13" t="s">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B90" s="11"/>
+      <c r="C90" s="2"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="2"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="F91" s="13" t="s">
+      <c r="C91" s="2"/>
+      <c r="F91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="J91" s="13" t="s">
+      <c r="G91" s="2"/>
+      <c r="J91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="13" t="s">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="15">
         <f>C93/C94</f>
         <v>30.20524017467249</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="15">
         <f>G93/G94</f>
         <v>12.652671755725191</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="J92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="15">
         <f>K93/K94</f>
         <v>31.455301455301459</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="13" t="s">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>69.17</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>132.6</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="J93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="14" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B94" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>2.29</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>10.48</v>
       </c>
-      <c r="J94" s="14" t="s">
+      <c r="J94" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="3">
         <v>4.8099999999999996</v>
       </c>
     </row>
@@ -2034,119 +2080,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A0204-EE35-46A8-8A70-523DC734C88C}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" customWidth="1"/>
+    <col min="6" max="6" width="12.07421875" customWidth="1"/>
+    <col min="7" max="7" width="27.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="C6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="26">
+      <c r="C8" s="5">
+        <v>205656.42214932901</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="22">
         <f>Sheet1!C87</f>
         <v>116396.39639639639</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="26">
+      <c r="C9" s="5">
+        <v>1.165375</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="22">
         <f>Sheet1!C92</f>
         <v>30.20524017467249</v>
       </c>

--- a/Group Lab 5/Group Lab 5 .xlsx
+++ b/Group Lab 5/Group Lab 5 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04 - Semester4\01 - capstone\Github\Capstone-Project\Group Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radad\Desktop\Capstone Project\Github\Capstone-Project\Group Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96DE61-7098-43D4-9C95-C20C8500EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89777ECA-C760-4360-A9A3-CAB48CA5AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
   <si>
     <t>STEEL</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Goodyear</t>
+  </si>
+  <si>
+    <t>ArcelorMittal</t>
+  </si>
+  <si>
+    <t>United States Steel Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nippon Steel </t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Company C</t>
   </si>
 </sst>
 </file>
@@ -336,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -372,6 +387,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,22 +720,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AEEC-24BE-4480-B690-F150F4589865}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -733,7 +765,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -759,21 +791,27 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
       <c r="F5" s="11"/>
@@ -781,57 +819,78 @@
       <c r="J5" s="11"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="14">
+        <v>79840000000</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="30">
+        <v>21070000000</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K6" s="32">
+        <v>71750000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="14">
+        <v>9300000000</v>
+      </c>
       <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="14">
+        <v>2520000000</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K7" s="14">
+        <v>6020000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="30">
+        <v>20087000000</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>2210000</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K8" s="14">
+        <v>12261818181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="J9" s="11"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
@@ -844,67 +903,93 @@
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="M10" s="24"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="e">
+      <c r="C11" s="2">
         <f>C13/C12</f>
-        <v>#DIV/0!</v>
+        <v>382009.56937799044</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="e">
+      <c r="G11" s="2">
         <f>G13/G12</f>
-        <v>#DIV/0!</v>
+        <v>2717307.196285788</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="2" t="e">
+      <c r="K11" s="2">
         <f>K13/K12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+        <v>675446.68913448683</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="14">
+        <v>209000</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>7754</v>
+      </c>
       <c r="J12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K12" s="2">
+        <v>106226</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="14">
+        <v>79840000000</v>
+      </c>
       <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="30">
+        <v>21070000000</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K13" s="32">
+        <v>71750000000</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="J14" s="11"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="M14" s="24"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
@@ -917,59 +1002,81 @@
         <v>9</v>
       </c>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="M15" s="24"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="e">
+      <c r="C16" s="2">
         <f>C17/C18</f>
-        <v>#DIV/0!</v>
+        <v>3.2</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="2" t="e">
+      <c r="G16" s="2">
         <f>G17/G18</f>
-        <v>#DIV/0!</v>
+        <v>1.972972972972973</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="2" t="e">
+      <c r="K16" s="2">
         <f>K17/K18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>73</v>
+      </c>
       <c r="J17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K17" s="2">
+        <v>95</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>25</v>
+      </c>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>37</v>
+      </c>
       <c r="J18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>13</v>
       </c>
@@ -991,7 +1098,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1011,7 +1118,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1132,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="F24" s="11"/>
@@ -1033,7 +1140,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1154,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1168,7 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1182,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="F28" s="11"/>
@@ -1083,7 +1190,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1204,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1241,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1255,7 @@
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="2"/>
       <c r="F33" s="11"/>
@@ -1156,7 +1263,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1277,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1300,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1314,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1328,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1350,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1263,7 +1370,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1384,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="2"/>
       <c r="F43" s="11"/>
@@ -1285,7 +1392,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1412,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1432,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1452,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="2"/>
       <c r="F47" s="11"/>
@@ -1353,7 +1460,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1474,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1497,7 @@
         <v>236081.08108108107</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1517,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1537,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="2"/>
       <c r="F52" s="11"/>
@@ -1438,7 +1545,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1559,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1582,7 @@
         <v>2.6092377444035137</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1602,7 @@
         <v>92.08</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1622,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1644,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1557,7 +1664,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1678,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="2"/>
       <c r="F62" s="11"/>
@@ -1579,7 +1686,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1700,7 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +1714,7 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1728,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="C66" s="2"/>
       <c r="F66" s="11"/>
@@ -1629,7 +1736,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1750,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1787,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1801,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="C71" s="2"/>
       <c r="F71" s="11"/>
@@ -1702,7 +1809,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1823,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1860,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1874,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="77" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1896,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -1809,7 +1916,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1931,7 @@
       <c r="K80" s="1"/>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="C81" s="2"/>
       <c r="F81" s="11"/>
@@ -1833,7 +1940,7 @@
       <c r="K81" s="2"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +1961,7 @@
       </c>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1981,7 @@
         <v>552100000</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>4</v>
       </c>
@@ -1894,7 +2001,7 @@
         <v>1073100000</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="C85" s="2"/>
       <c r="F85" s="11"/>
@@ -1902,7 +2009,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>5</v>
       </c>
@@ -1916,7 +2023,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2046,7 @@
         <v>983290.78841805854</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>7</v>
       </c>
@@ -1959,7 +2066,7 @@
         <v>13711</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +2088,7 @@
         <v>13481900000</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="C90" s="2"/>
       <c r="F90" s="11"/>
@@ -1989,7 +2096,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>9</v>
       </c>
@@ -2003,7 +2110,7 @@
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2133,7 @@
         <v>31.455301455301459</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>11</v>
       </c>
@@ -2046,7 +2153,7 @@
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>12</v>
       </c>
@@ -2082,20 +2189,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A0204-EE35-46A8-8A70-523DC734C88C}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53515625" customWidth="1"/>
-    <col min="6" max="6" width="12.07421875" customWidth="1"/>
-    <col min="7" max="7" width="27.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="20" t="s">
         <v>19</v>
@@ -2113,7 +2220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
@@ -2141,7 +2248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2169,7 +2276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2181,7 +2288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2196,11 +2303,11 @@
         <v>116396.39639639639</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>1.165375</v>
       </c>
       <c r="D9" s="5"/>

--- a/Group Lab 5/Group Lab 5 .xlsx
+++ b/Group Lab 5/Group Lab 5 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04 - Semester4\01 - capstone\Github\Capstone-Project\Group Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJVI\Desktop\Capstone\Capstone-Project\Group Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96DE61-7098-43D4-9C95-C20C8500EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9FE7E-39B3-4998-9530-B896E9F0EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="39">
   <si>
     <t>STEEL</t>
   </si>
@@ -129,9 +129,6 @@
     <t>AUTOMOTIVE RETAIL (2021)</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>Bridgestone</t>
   </si>
   <si>
@@ -139,14 +136,34 @@
   </si>
   <si>
     <t>Goodyear</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corporation</t>
+  </si>
+  <si>
+    <t>Volkwagen Group</t>
+  </si>
+  <si>
+    <t>General Motors Company</t>
+  </si>
+  <si>
+    <t>GoodYear</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Market power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -334,9 +351,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -345,9 +362,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -358,11 +372,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,6 +387,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -690,35 +718,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AEEC-24BE-4480-B690-F150F4589865}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -733,18 +761,18 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+    <row r="2" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -759,108 +787,108 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="e">
         <f>C13/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="e">
         <f>G13/G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="2" t="e">
@@ -868,72 +896,72 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="e">
         <f>C17/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="e">
         <f>G17/G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="2" t="e">
@@ -941,48 +969,48 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -991,18 +1019,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+    <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1011,108 +1039,108 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
       <c r="C28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="e">
         <f>C32/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="2" t="e">
         <f>G32/G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="2" t="e">
@@ -1120,72 +1148,72 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
       <c r="C33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="2"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="2" t="e">
         <f>C36/C37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="e">
         <f>G36/G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="2" t="e">
@@ -1193,48 +1221,48 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B37" s="12" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -1243,18 +1271,18 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+    <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -1263,126 +1291,126 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="F42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="1"/>
+      <c r="J42" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="J42" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B43" s="11"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
       <c r="C43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2"/>
-      <c r="J43" s="11"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2">
         <v>29.53</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="2">
         <v>23.79</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K44" s="2">
         <v>17.47</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="2">
         <v>3.5859999999999999</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="2">
         <v>1.839</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="2">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
         <v>6.29</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K46" s="2">
         <v>5.39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B47" s="11"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
       <c r="C47" s="2"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="2"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <f>C51/C50*1000000000</f>
         <v>205656.42214932901</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="2">
         <f>G51/G50*1000000000</f>
         <v>193414.63414634147</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K49" s="2">
@@ -1390,84 +1418,84 @@
         <v>236081.08108108107</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2">
         <v>143589</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2">
         <v>123000</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K50" s="2">
         <v>74000</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="2">
         <v>29.53</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="2">
         <v>23.79</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="2">
         <v>17.47</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B52" s="11"/>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
       <c r="C52" s="2"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2"/>
-      <c r="J52" s="11"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B53" s="11" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="2">
         <f>C55/C56</f>
         <v>1.165375</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2">
         <f>G55/G56</f>
         <v>1.3806678383128297</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K54" s="2">
@@ -1475,60 +1503,60 @@
         <v>2.6092377444035137</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B55" s="11" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="2">
         <v>93.23</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="2">
         <v>78.56</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K55" s="2">
         <v>92.08</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B56" s="12" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3">
         <v>80</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="3">
         <v>56.9</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K56" s="3">
         <v>35.29</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -1537,18 +1565,18 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+    <row r="59" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -1557,230 +1585,272 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B61" s="10" t="s">
-        <v>1</v>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="F61" s="10" t="s">
-        <v>1</v>
+      <c r="F61" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="J61" s="10" t="s">
-        <v>1</v>
+      <c r="J61" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B62" s="11"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
       <c r="C62" s="2"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="2"/>
-      <c r="J62" s="11"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="F63" s="11" t="s">
+      <c r="C63" s="26">
+        <v>27214593000</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="J63" s="11" t="s">
+      <c r="G63" s="23">
+        <v>250199000000</v>
+      </c>
+      <c r="J63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B64" s="11" t="s">
+      <c r="K63" s="23">
+        <v>127004000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="F64" s="11" t="s">
+      <c r="C64" s="26">
+        <v>2245261000</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="J64" s="11" t="s">
+      <c r="G64" s="24">
+        <v>15382000000</v>
+      </c>
+      <c r="J64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B65" s="11" t="s">
+      <c r="K64" s="23">
+        <v>10019000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="F65" s="11" t="s">
+      <c r="C65" s="26">
+        <v>2888028000</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="J65" s="11" t="s">
+      <c r="G65" s="23">
+        <v>43380000000</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B66" s="11"/>
+      <c r="K65" s="24">
+        <v>12988000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
       <c r="C66" s="2"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="2"/>
-      <c r="J66" s="11"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B67" s="11" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B68" s="11" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="2" t="e">
+      <c r="C68" s="14">
         <f>C70/C69</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="11" t="s">
+        <v>74299.361422725051</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="2" t="e">
+      <c r="G68" s="14">
         <f>G70/G69</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J68" s="11" t="s">
+        <v>374747.43389845232</v>
+      </c>
+      <c r="J68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="2" t="e">
+      <c r="K68" s="14">
         <f>K70/K69</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B69" s="11" t="s">
+        <v>808942.67515923572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="F69" s="11" t="s">
+      <c r="C69" s="2">
+        <v>366283</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="J69" s="11" t="s">
+      <c r="G69" s="2">
+        <v>667647</v>
+      </c>
+      <c r="J69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B70" s="11" t="s">
+      <c r="K69" s="2">
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="F70" s="11" t="s">
+      <c r="C70" s="25">
+        <v>27214593000</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="J70" s="11" t="s">
+      <c r="G70" s="23">
+        <v>250199000000</v>
+      </c>
+      <c r="J70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B71" s="11"/>
+      <c r="K70" s="23">
+        <v>127004000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
       <c r="C71" s="2"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="2"/>
-      <c r="J71" s="11"/>
+      <c r="J71" s="10"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B72" s="11" t="s">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B73" s="11" t="s">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="2" t="e">
+      <c r="C73" s="14">
         <f>C74/C75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="11" t="s">
+        <v>0.42176310807473871</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="2" t="e">
+      <c r="G73" s="14">
         <f>G74/G75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J73" s="11" t="s">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K73" s="2" t="e">
+      <c r="K73" s="14">
         <f>K74/K75</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B74" s="11" t="s">
+        <v>0.62368541380887066</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="F74" s="11" t="s">
+      <c r="C74" s="2">
+        <v>51.24</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="J74" s="11" t="s">
+      <c r="G74" s="2">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B75" s="12" t="s">
+      <c r="K74" s="2">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="F75" s="12" t="s">
+      <c r="C75" s="3">
+        <v>121.49</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="J75" s="12" t="s">
+      <c r="G75" s="3">
+        <v>76.95</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="23" t="s">
+      <c r="K75" s="3">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -1789,18 +1859,18 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -1809,129 +1879,129 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B80" s="10" t="s">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G80" s="1"/>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K80" s="1"/>
-      <c r="M80" s="17"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B81" s="11"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
       <c r="C81" s="2"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="2"/>
-      <c r="J81" s="11"/>
+      <c r="J81" s="10"/>
       <c r="K81" s="2"/>
-      <c r="M81" s="17"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B82" s="11" t="s">
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="12">
         <v>2584000000</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="12">
         <v>25554700000</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="12">
         <v>13481900000</v>
       </c>
-      <c r="M82" s="17"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B83" s="11" t="s">
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="12">
         <v>1373000000</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="12">
         <v>1187800000</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="12">
         <v>552100000</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B84" s="11" t="s">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="12">
         <v>800400000</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="12">
         <v>3129000000</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="12">
         <v>1073100000</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B85" s="11"/>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
       <c r="C85" s="2"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="2"/>
-      <c r="J85" s="11"/>
+      <c r="J85" s="10"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B86" s="11" t="s">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B87" s="11" t="s">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="14">
         <f>C89/C88</f>
         <v>116396.39639639639</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="14">
         <f>G89/G88</f>
         <v>1022188</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K87" s="2">
@@ -1939,127 +2009,127 @@
         <v>983290.78841805854</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B88" s="11" t="s">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="13">
         <v>22200</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="13">
         <v>25000</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K88" s="13">
         <v>13711</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B89" s="11" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="12">
         <v>2584000000</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="15">
         <f>G82</f>
         <v>25554700000</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="15">
         <f>K82</f>
         <v>13481900000</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B90" s="11"/>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
       <c r="C90" s="2"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="2"/>
-      <c r="J90" s="11"/>
+      <c r="J90" s="10"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B91" s="11" t="s">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <f>C93/C94</f>
         <v>30.20524017467249</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="14">
         <f>G93/G94</f>
         <v>12.652671755725191</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K92" s="14">
         <f>K93/K94</f>
         <v>31.455301455301459</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2">
         <v>69.17</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="2">
         <v>132.6</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K93" s="2">
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B94" s="12" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="3">
         <v>2.29</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="3">
         <v>10.48</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K94" s="3">
@@ -2082,133 +2152,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A0204-EE35-46A8-8A70-523DC734C88C}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53515625" customWidth="1"/>
-    <col min="6" max="6" width="12.07421875" customWidth="1"/>
-    <col min="7" max="7" width="27.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>31</v>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>205656.42214932901</v>
+      <c r="C8" s="21">
+        <v>236081.08108108107</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="22">
-        <f>Sheet1!C87</f>
-        <v>116396.39639639639</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+      <c r="F8" s="5">
+        <v>808942.68</v>
+      </c>
+      <c r="G8" s="21">
+        <v>983290.78841805854</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>1.165375</v>
+        <v>2.61</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="22">
-        <f>Sheet1!C92</f>
-        <v>30.20524017467249</v>
+      <c r="F9" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="G9" s="21">
+        <v>31.46</v>
       </c>
     </row>
   </sheetData>

--- a/Group Lab 5/Group Lab 5 .xlsx
+++ b/Group Lab 5/Group Lab 5 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radad\Desktop\Capstone Project\Github\Capstone-Project\Group Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89777ECA-C760-4360-A9A3-CAB48CA5AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BABC2-E530-4C9C-A339-AD4E10486B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
   <si>
     <t>STEEL</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Company C</t>
+  </si>
+  <si>
+    <t>Nippon Steel</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -333,25 +339,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -383,11 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -403,6 +392,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -720,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AEEC-24BE-4480-B690-F150F4589865}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,19 +734,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -766,17 +762,17 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -795,19 +791,19 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -829,13 +825,13 @@
       <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="28">
         <v>21070000000</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <v>71750000000</v>
       </c>
     </row>
@@ -863,7 +859,7 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>20087000000</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -886,9 +882,9 @@
       <c r="G9" s="2"/>
       <c r="J9" s="11"/>
       <c r="K9" s="2"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -903,9 +899,9 @@
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="M10" s="24"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
+      <c r="M10" s="22"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -929,9 +925,9 @@
         <f>K13/K12</f>
         <v>675446.68913448683</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="M11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -952,8 +948,8 @@
       <c r="K12" s="2">
         <v>106226</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="P12" s="25"/>
+      <c r="M12" s="22"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
@@ -965,17 +961,17 @@
       <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="28">
         <v>21070000000</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="30">
         <v>71750000000</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
@@ -984,10 +980,10 @@
       <c r="G14" s="2"/>
       <c r="J14" s="11"/>
       <c r="K14" s="2"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
@@ -1002,8 +998,8 @@
         <v>9</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="M15" s="24"/>
-      <c r="O15" s="26"/>
+      <c r="M15" s="22"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
@@ -1027,10 +1023,10 @@
         <f>K17/K18</f>
         <v>2.5</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
@@ -1051,10 +1047,10 @@
       <c r="K17" s="2">
         <v>95</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -1077,19 +1073,19 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1099,17 +1095,17 @@
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1329,19 +1325,19 @@
       <c r="K37" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -1351,17 +1347,17 @@
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -1623,19 +1619,19 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -1645,17 +1641,17 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -1875,19 +1871,19 @@
       <c r="K75" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -1897,17 +1893,17 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -2189,14 +2185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A0204-EE35-46A8-8A70-523DC734C88C}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
@@ -2225,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="5"/>
@@ -2234,12 +2230,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
+      <c r="C4" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="5"/>
@@ -2253,7 +2249,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="5"/>
@@ -2266,8 +2262,8 @@
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>31</v>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2280,7 +2276,9 @@
       <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2293,12 +2291,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>205656.42214932901</v>
+        <v>3820009.5493999999</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <f>Sheet1!C87</f>
         <v>116396.39639639639</v>
       </c>
@@ -2307,13 +2305,13 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
-        <v>1.165375</v>
+      <c r="C9" s="33">
+        <v>3.2</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <f>Sheet1!C92</f>
         <v>30.20524017467249</v>
       </c>

--- a/Group Lab 5/Group Lab 5 .xlsx
+++ b/Group Lab 5/Group Lab 5 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJVI\Desktop\Capstone\Capstone-Project\Group Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\OneDrive\Documents\GitHub\Capstone-Project\Group Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9FE7E-39B3-4998-9530-B896E9F0EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD8257-4E69-427E-A354-236AAA2A3B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14748" windowHeight="12336" xr2:uid="{8954D6C2-C30E-4335-ADF5-B26D38CA7006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>STEEL</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Market power</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>Denso</t>
+  </si>
+  <si>
+    <t>Continental</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -353,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -384,23 +393,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -718,35 +726,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AEEC-24BE-4480-B690-F150F4589865}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -761,18 +769,18 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -787,7 +795,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -801,7 +809,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="F5" s="10"/>
@@ -809,7 +817,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -823,7 +831,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
@@ -837,7 +845,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
@@ -851,7 +859,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="F9" s="10"/>
@@ -859,7 +867,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -873,7 +881,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -896,7 +904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -910,7 +918,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
@@ -924,7 +932,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="F14" s="10"/>
@@ -932,7 +940,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -946,7 +954,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -969,7 +977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -983,7 +991,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
@@ -997,20 +1005,20 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1019,18 +1027,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1039,21 +1047,21 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="9" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1"/>
       <c r="J23" s="9" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="F24" s="10"/>
@@ -1061,49 +1069,67 @@
       <c r="J24" s="10"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>78.8</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>46.4</v>
+      </c>
       <c r="J25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>1.17</v>
+      </c>
       <c r="J26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="F27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>6.82</v>
+      </c>
       <c r="J27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="2"/>
       <c r="F28" s="10"/>
@@ -1111,7 +1137,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>5</v>
       </c>
@@ -1125,58 +1151,70 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2" t="e">
-        <f>C32/C31</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="2">
+        <f>C32/C31*1000000000</f>
+        <v>195727.76949826127</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="2" t="e">
-        <f>G32/G31</f>
-        <v>#DIV/0!</v>
+      <c r="G30" s="2">
+        <f>G32/G31*1000000000</f>
+        <v>276272.70020839531</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="2" t="e">
-        <f>K32/K31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <f>K32/K31*1000000000</f>
+        <v>209162.30366492149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31">
+        <v>402600</v>
+      </c>
       <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31">
+        <v>167950</v>
+      </c>
       <c r="J31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>78.8</v>
+      </c>
       <c r="F32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>46.4</v>
+      </c>
       <c r="J32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="2"/>
       <c r="F33" s="10"/>
@@ -1184,7 +1222,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>9</v>
       </c>
@@ -1198,71 +1236,83 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2" t="e">
+      <c r="C35" s="2">
         <f>C36/C37</f>
-        <v>#DIV/0!</v>
+        <v>0.15790126974728172</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="2" t="e">
+      <c r="G35" s="2">
         <f>G36/G37</f>
-        <v>#DIV/0!</v>
+        <v>1.4245092504231032</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="2" t="e">
+      <c r="K35" s="2">
         <f>K36/K37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0139008377725556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>21.093445509159086</v>
+      </c>
       <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>86.284121730908012</v>
+      </c>
       <c r="J36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>81.796037674569675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37">
+        <v>133.58629441624367</v>
+      </c>
       <c r="F37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37">
+        <v>60.571120689655174</v>
+      </c>
       <c r="J37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="K37" s="3">
+        <v>80.674593241551946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -1271,18 +1321,18 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -1291,7 +1341,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1355,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="2"/>
       <c r="F43" s="10"/>
@@ -1313,7 +1363,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1383,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1403,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1423,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
       <c r="C47" s="2"/>
       <c r="F47" s="10"/>
@@ -1381,7 +1431,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1445,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1468,7 @@
         <v>236081.08108108107</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1508,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="2"/>
       <c r="F52" s="10"/>
@@ -1466,7 +1516,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1530,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +1553,7 @@
         <v>2.6092377444035137</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1573,7 @@
         <v>92.08</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
@@ -1543,20 +1593,20 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -1565,18 +1615,18 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
+    <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -1585,7 +1635,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1649,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
       <c r="C62" s="2"/>
       <c r="F62" s="10"/>
@@ -1607,67 +1657,67 @@
       <c r="J62" s="10"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="25">
         <v>27214593000</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>250199000000</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="22">
         <v>127004000000</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="25">
         <v>2245261000</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="23">
         <v>15382000000</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="22">
         <v>10019000000</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="25">
         <v>2888028000</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>43380000000</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="24">
+      <c r="K65" s="23">
         <v>12988000000</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="C66" s="2"/>
       <c r="F66" s="10"/>
@@ -1675,7 +1725,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1739,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>6</v>
       </c>
@@ -1712,7 +1762,7 @@
         <v>808942.67515923572</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
@@ -1732,27 +1782,27 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="25">
+      <c r="C70" s="24">
         <v>27214593000</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>250199000000</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="22">
         <v>127004000000</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="2"/>
       <c r="F71" s="10"/>
@@ -1760,7 +1810,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1824,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1847,7 @@
         <v>0.62368541380887066</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1867,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>12</v>
       </c>
@@ -1837,20 +1887,20 @@
         <v>109.35</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+    <row r="77" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -1859,18 +1909,18 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -1879,7 +1929,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1944,7 @@
       <c r="K80" s="1"/>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="10"/>
       <c r="C81" s="2"/>
       <c r="F81" s="10"/>
@@ -1903,7 +1953,7 @@
       <c r="K81" s="2"/>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>2</v>
       </c>
@@ -1924,7 +1974,7 @@
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +1994,7 @@
         <v>552100000</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +2014,7 @@
         <v>1073100000</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="10"/>
       <c r="C85" s="2"/>
       <c r="F85" s="10"/>
@@ -1972,7 +2022,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2036,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2059,7 @@
         <v>983290.78841805854</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2079,7 @@
         <v>13711</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +2101,7 @@
         <v>13481900000</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
       <c r="C90" s="2"/>
       <c r="F90" s="10"/>
@@ -2059,7 +2109,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2123,7 @@
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2146,7 @@
         <v>31.455301455301459</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2166,7 @@
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>12</v>
       </c>
@@ -2156,16 +2206,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
         <v>19</v>
@@ -2183,7 +2233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2195,11 +2245,11 @@
       <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
@@ -2211,11 +2261,11 @@
       <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2227,11 +2277,11 @@
       <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
@@ -2243,11 +2293,11 @@
       <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -2263,7 +2313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2329,7 @@
         <v>983290.78841805854</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
